--- a/QLDS/Backend/src/main/resources/Phieu_xuat_kho.xlsx
+++ b/QLDS/Backend/src/main/resources/Phieu_xuat_kho.xlsx
@@ -3,20 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18E97DC0-FB35-4702-AA1F-6C3570EF7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386217A-B788-4D23-8794-71218166DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phiếu xuất kho" sheetId="1" r:id="rId1"/>
+    <sheet name="Phiếu xuất kho" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Phiếu xuất kho'!$B$1:$I$39</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">(Ban hành theo Thông tư số 200/2014/TT-BTC </t>
   </si>
@@ -63,9 +81,6 @@
     <t>Mã số</t>
   </si>
   <si>
-    <t xml:space="preserve"> Người lập phiếu </t>
-  </si>
-  <si>
     <t>Thủ kho</t>
   </si>
   <si>
@@ -76,6 +91,63 @@
   </si>
   <si>
     <t>(Hoặc bộ phận có nhu cầu nhập)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giám đốc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mẫu số 02 - VT </t>
+  </si>
+  <si>
+    <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>Thực cấp</t>
+  </si>
+  <si>
+    <t>Bộ phận: PHÒNG KẾ HOẠCH - VẬT TƯ</t>
+  </si>
+  <si>
+    <t>Đơn vị: {0}</t>
+  </si>
+  <si>
+    <t>(Ký, họ tên)              (Ký, họ tên)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lập phiếu         Người lập phiếu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                             Ngày {0} tháng {1} năm {2}  </t>
+  </si>
+  <si>
+    <t>Địa điểm:  {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Xuất tại kho (ngăn lô):  {0} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Lý do xuất kho:  {0}</t>
+  </si>
+  <si>
+    <t>Địa chỉ (bộ phận):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Họ và tên người nhận hàng:  {0} </t>
+  </si>
+  <si>
+    <t>Có:  {0}</t>
+  </si>
+  <si>
+    <t>Nợ:  {0}</t>
+  </si>
+  <si>
+    <t>Số:  {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày {0} tháng {1} năm {2}  </t>
   </si>
   <si>
     <r>
@@ -84,7 +156,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -92,52 +164,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Người nhận hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giám đốc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mẫu số 02 - VT </t>
-  </si>
-  <si>
-    <t>Ngày {0} tháng {1} năm {2}</t>
-  </si>
-  <si>
-    <t>Có: {0}</t>
-  </si>
-  <si>
-    <t>Nợ: {0}</t>
-  </si>
-  <si>
-    <t>Yêu cầu</t>
-  </si>
-  <si>
-    <t>Thực cấp</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Tổng số tiền (viết bằng chữ):  {0}</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Số chứng từ gốc kèm theo: {0}</t>
-  </si>
-  <si>
-    <t>Bộ phận: PHÒNG KẾ HOẠCH - VẬT TƯ</t>
-  </si>
-  <si>
-    <t>Đơn vị: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Số: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Lý do xuất kho: {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Xuất tại kho (ngăn lô): {0}     Địa điểm: {1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Họ và tên người nhận hàng: {0}     Địa chỉ (bộ phận): Phòng kỹ thuật</t>
+    <t xml:space="preserve"> - Số chứng từ gốc kèm theo:  {0}</t>
   </si>
 </sst>
 </file>
@@ -154,62 +184,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -275,8 +304,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -288,20 +319,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -310,116 +349,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,336 +807,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA6DE02-4DBF-42FC-A541-6DB886C06CC3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="14" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="14" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="E2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="32"/>
+    <row r="1" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="F2" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="E3" s="32" t="s">
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="F3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="4"/>
+      <c r="F4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="36"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="2:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="2:9" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="2:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="I30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25" t="s">
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="H24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="H25" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="G31" s="30"/>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+  <mergeCells count="31">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="11" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.21" right="0.26" top="0.2" bottom="0.4" header="0.16" footer="0.3"/>
+  <pageSetup paperSize="11" scale="56" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QLDS/Backend/src/main/resources/Phieu_xuat_kho.xlsx
+++ b/QLDS/Backend/src/main/resources/Phieu_xuat_kho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386217A-B788-4D23-8794-71218166DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325972B-C573-4526-9C5E-B8A4A2AC53A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>(Ký, họ tên)              (Ký, họ tên)</t>
   </si>
   <si>
-    <t xml:space="preserve">Người lập phiếu         Người lập phiếu </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                             Ngày {0} tháng {1} năm {2}  </t>
   </si>
   <si>
@@ -127,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Lý do xuất kho:  {0}</t>
-  </si>
-  <si>
-    <t>Địa chỉ (bộ phận):</t>
   </si>
   <si>
     <t xml:space="preserve"> - Họ và tên người nhận hàng:  {0} </t>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t xml:space="preserve"> - Số chứng từ gốc kèm theo:  {0}</t>
+  </si>
+  <si>
+    <t>Địa chỉ (bộ phận):  {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lập phiếu         Người nhận </t>
   </si>
 </sst>
 </file>
@@ -428,15 +428,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -456,19 +447,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +813,9 @@
   </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -822,8 +824,7 @@
     <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -834,12 +835,12 @@
         <v>24</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -847,22 +848,22 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="4"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
@@ -873,16 +874,16 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="B6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="2:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
@@ -897,27 +898,27 @@
     <row r="8" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -929,7 +930,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -942,44 +943,44 @@
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="B12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="B13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="41" t="s">
+      <c r="B14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="2:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
@@ -992,7 +993,7 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="2:9" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1016,7 +1017,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -1134,59 +1135,59 @@
     </row>
     <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="B29" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
+      <c r="B30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="35"/>
       <c r="I30" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
+    <row r="31" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="30" t="s">
+      <c r="E31" s="34"/>
+      <c r="F31" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="36"/>
       <c r="I31" s="3" t="s">
         <v>17</v>
       </c>
@@ -1200,13 +1201,11 @@
     <row r="33" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B29:I29"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="B30:C30"/>
@@ -1216,6 +1215,7 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B29:I29"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
@@ -1236,6 +1236,7 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.26" top="0.2" bottom="0.4" header="0.16" footer="0.3"/>
   <pageSetup paperSize="11" scale="56" orientation="portrait" r:id="rId1"/>
